--- a/fitting_results/fitting_results(basic_models, LRRCM, target_LDMI).xlsx
+++ b/fitting_results/fitting_results(basic_models, LRRCM, target_LDMI).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm\fitting_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BAEA29-0BCC-4BAF-960E-77896F96A027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE8E3A6-3E50-4BA2-A2C6-8B756482FE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>method</t>
   </si>
@@ -78,10 +78,6 @@
   </si>
   <si>
     <t>SIGMOID</t>
-  </si>
-  <si>
-    <t>Avg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -455,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,15 +615,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E10">
-        <f>AVERAGE(E2:E9)</f>
-        <v>5.1870847715293551E-2</v>
-      </c>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/fitting_results/fitting_results(basic_models, LRRCM, target_LDMI).xlsx
+++ b/fitting_results/fitting_results(basic_models, LRRCM, target_LDMI).xlsx
@@ -1,37 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm\fitting_results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE8E3A6-3E50-4BA2-A2C6-8B756482FE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>scale_a</t>
+  </si>
+  <si>
+    <t>scale_b</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>EXPONENTIAL</t>
+  </si>
+  <si>
+    <t>GAUSSIAN</t>
+  </si>
+  <si>
+    <t>INVERSE</t>
+  </si>
+  <si>
+    <t>POWERLAW</t>
+  </si>
+  <si>
+    <t>RATIONAL_QUADRATIC</t>
+  </si>
+  <si>
+    <t>GENERALIZED_GAUSSIAN</t>
+  </si>
+  <si>
+    <t>SIGMOID</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +123,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,224 +450,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>scale_a</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>scale_b</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>loss</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>alpha</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>beta</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>mu</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>EXPONENTIAL</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>11.17148409196296</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.9951239053292109</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.171116757638722</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.05656386817083643</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GAUSSIAN</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>15.61671057785036</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2042967907449706</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.975198055550627</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.05551705764551389</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>INVERSE</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.649983326352112</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06528521646380617</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.972999793533539</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.05409389542575858</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.449196953407862</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>POWERLAW</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>-0.9986184951351856</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1812305052095607</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.05611143824827156</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.1022929075071417</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>RATIONAL_QUADRATIC</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>17.66583427049583</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1783168130184512</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.86555041031276</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.05551341694278756</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4.815566510117037</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>GENERALIZED_GAUSSIAN</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>19.66049985543798</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1216087910335604</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.99999991914047</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.05409926710673951</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>3.150953655966454</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SIGMOID</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
-        <v>-0.1402598537485188</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.936249625896715</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.05271578632849101</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>0.226613204125945</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6.514282762455604</v>
-      </c>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>2.7870999223987369</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>1.061221348828653</v>
+      </c>
+      <c r="E2">
+        <v>5.3620482458178867E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>9.9346353192425045</v>
+      </c>
+      <c r="C3">
+        <v>0.21488422461431961</v>
+      </c>
+      <c r="D3">
+        <v>1.999999992181422</v>
+      </c>
+      <c r="E3">
+        <v>5.3867139275414658E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1.079864038934969</v>
+      </c>
+      <c r="C4">
+        <v>-0.99999225414017157</v>
+      </c>
+      <c r="D4">
+        <v>1.0740788418865941</v>
+      </c>
+      <c r="E4">
+        <v>5.3420536405272251E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.60157271596657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>-0.97924027408451131</v>
+      </c>
+      <c r="D5">
+        <v>0.21319852916992349</v>
+      </c>
+      <c r="E5">
+        <v>5.3166439009672647E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.11681031201776761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0.72723885705546154</v>
+      </c>
+      <c r="C6">
+        <v>-0.94406941023358304</v>
+      </c>
+      <c r="D6">
+        <v>1.5357011556579681</v>
+      </c>
+      <c r="E6">
+        <v>5.3474513162327937E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.58268614483517878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0.1772770570757079</v>
+      </c>
+      <c r="C7">
+        <v>-0.61596030002729041</v>
+      </c>
+      <c r="D7">
+        <v>0.79981059506525864</v>
+      </c>
+      <c r="E7">
+        <v>4.2874092513849188E-2</v>
+      </c>
+      <c r="G7">
+        <v>4.9975301990947827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>-0.86609988756213774</v>
+      </c>
+      <c r="D8">
+        <v>1.880093273530417</v>
+      </c>
+      <c r="E8">
+        <v>5.2672731182339262E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.32687021698907831</v>
+      </c>
+      <c r="H8">
+        <v>8.6543563455891981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>